--- a/notebooks/assets/test/RFnh3_st0_1_mountains.xlsx
+++ b/notebooks/assets/test/RFnh3_st0_1_mountains.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,128 +467,172 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.62</v>
+        <v>4.61</v>
       </c>
       <c r="C2" t="n">
-        <v>1.713</v>
+        <v>1.725</v>
       </c>
       <c r="D2" t="n">
-        <v>2.408</v>
+        <v>2.396</v>
       </c>
       <c r="E2" t="n">
-        <v>4.11</v>
+        <v>4.131</v>
       </c>
       <c r="F2" t="n">
-        <v>2.088</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>MSE_sensor</t>
+          <t>RMSE_sensor</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39.442</v>
+        <v>6.134</v>
       </c>
       <c r="C3" t="n">
-        <v>5.454</v>
+        <v>2.339</v>
       </c>
       <c r="D3" t="n">
-        <v>11.557</v>
+        <v>3.328</v>
       </c>
       <c r="E3" t="n">
-        <v>34.018</v>
+        <v>5.833</v>
       </c>
       <c r="F3" t="n">
-        <v>12.004</v>
+        <v>3.286</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>R2_sensor</t>
+          <t>MSE_sensor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.837</v>
+        <v>39.719</v>
       </c>
       <c r="C4" t="n">
-        <v>0.877</v>
+        <v>5.498</v>
       </c>
       <c r="D4" t="n">
-        <v>0.92</v>
+        <v>11.412</v>
       </c>
       <c r="E4" t="n">
-        <v>0.787</v>
+        <v>34.123</v>
       </c>
       <c r="F4" t="n">
-        <v>0.705</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MAE_cams</t>
+          <t>R2_sensor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.956</v>
+        <v>0.836</v>
       </c>
       <c r="C5" t="n">
-        <v>10.748</v>
+        <v>0.876</v>
       </c>
       <c r="D5" t="n">
-        <v>8.166</v>
+        <v>0.921</v>
       </c>
       <c r="E5" t="n">
-        <v>10.326</v>
+        <v>0.787</v>
       </c>
       <c r="F5" t="n">
-        <v>9.163</v>
+        <v>0.707</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MSE_cams</t>
+          <t>MAE_cams</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>272.549</v>
+        <v>14.956</v>
       </c>
       <c r="C6" t="n">
-        <v>135.617</v>
+        <v>10.748</v>
       </c>
       <c r="D6" t="n">
-        <v>149.976</v>
+        <v>8.166</v>
       </c>
       <c r="E6" t="n">
-        <v>194.43</v>
+        <v>10.326</v>
       </c>
       <c r="F6" t="n">
-        <v>102.945</v>
+        <v>9.163</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
+          <t>RMSE_cams</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>16.458</v>
+      </c>
+      <c r="C7" t="n">
+        <v>11.633</v>
+      </c>
+      <c r="D7" t="n">
+        <v>12.027</v>
+      </c>
+      <c r="E7" t="n">
+        <v>13.395</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10.105</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>MSE_cams</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>272.549</v>
+      </c>
+      <c r="C8" t="n">
+        <v>135.617</v>
+      </c>
+      <c r="D8" t="n">
+        <v>149.976</v>
+      </c>
+      <c r="E8" t="n">
+        <v>194.43</v>
+      </c>
+      <c r="F8" t="n">
+        <v>102.945</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
           <t>R2_cams</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B9" t="n">
         <v>-0.462</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C9" t="n">
         <v>-2.048</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D9" t="n">
         <v>0.013</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E9" t="n">
         <v>0.139</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F9" t="n">
         <v>-1.066</v>
       </c>
     </row>

--- a/notebooks/assets/test/RFnh3_st0_1_mountains.xlsx
+++ b/notebooks/assets/test/RFnh3_st0_1_mountains.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.61</v>
+        <v>4.601</v>
       </c>
       <c r="C2" t="n">
-        <v>1.725</v>
+        <v>2.037</v>
       </c>
       <c r="D2" t="n">
-        <v>2.396</v>
+        <v>2.401</v>
       </c>
       <c r="E2" t="n">
-        <v>4.131</v>
+        <v>3.634</v>
       </c>
       <c r="F2" t="n">
-        <v>2.08</v>
+        <v>1.932</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.134</v>
+        <v>5.827</v>
       </c>
       <c r="C3" t="n">
-        <v>2.339</v>
+        <v>2.809</v>
       </c>
       <c r="D3" t="n">
-        <v>3.328</v>
+        <v>3.325</v>
       </c>
       <c r="E3" t="n">
-        <v>5.833</v>
+        <v>5.074</v>
       </c>
       <c r="F3" t="n">
-        <v>3.286</v>
+        <v>2.883</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.719</v>
+        <v>35.506</v>
       </c>
       <c r="C4" t="n">
-        <v>5.498</v>
+        <v>8.007999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>11.412</v>
+        <v>11.853</v>
       </c>
       <c r="E4" t="n">
-        <v>34.123</v>
+        <v>26.633</v>
       </c>
       <c r="F4" t="n">
-        <v>11.9</v>
+        <v>9.053000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.836</v>
+        <v>0.853</v>
       </c>
       <c r="C5" t="n">
-        <v>0.876</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.921</v>
+        <v>0.922</v>
       </c>
       <c r="E5" t="n">
-        <v>0.787</v>
+        <v>0.854</v>
       </c>
       <c r="F5" t="n">
-        <v>0.707</v>
+        <v>0.801</v>
       </c>
     </row>
     <row r="6">
